--- a/biology/Zoologie/Gazé/Gazé.xlsx
+++ b/biology/Zoologie/Gazé/Gazé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gaz%C3%A9</t>
+          <t>Gazé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aporia crataegi · Piéride de l'aubépine
 Le Gazé ou la Piéride de l'aubépine (Aporia crataegi) est une espèce paléarctique de lépidoptères (papillons) de la famille des Pieridae et de la sous-famille des Pierinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gaz%C3%A9</t>
+          <t>Gazé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En français : le Gazé, la Piéride de l'aubépine[1].
-En anglais : Black-veined White[2].
-En allemand : Baum-Weißling[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En français : le Gazé, la Piéride de l'aubépine.
+En anglais : Black-veined White.
+En allemand : Baum-Weißling.
 En néerlandais : Groot geaderd witje.
 En italien : Pieride del biancospino.
-En polonais : Niestrzęp głogowiec[4].</t>
+En polonais : Niestrzęp głogowiec.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gaz%C3%A9</t>
+          <t>Gazé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,15 +563,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Papillon
-L'imago d’Aporia crataegi est un assez grand papillon d'une envergure de 5,5 à 7,5 cm[5], aux ailes blanches nervurées de noir. Cet aspect caractéristique est à l'origine de son nom anglais de « Black-veined White ». La femelle se distingue du mâle par la présence d'une bordure marron à la base de la côte des ailes antérieures.
+          <t>Papillon</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago d’Aporia crataegi est un assez grand papillon d'une envergure de 5,5 à 7,5 cm, aux ailes blanches nervurées de noir. Cet aspect caractéristique est à l'origine de son nom anglais de « Black-veined White ». La femelle se distingue du mâle par la présence d'une bordure marron à la base de la côte des ailes antérieures.
 Avec l'âge, en perdant leurs écailles, les ailes peuvent devenir translucides, tout en conservant leurs nervures noires. Le revers des ailes peut présenter une suffusion d'écailles sombres d'intensité variable.
 			Aporia crataegi ♂
 			Aporia crataegi ♂ △
 			Aporia crataegi  ♀
 			Aporia crataegi  ♀ △
-Premiers stades
-Les œufs sont jaune vif. Les chenilles sont velues, avec une tête noire et un dos noir orné de bandes rousses alors que leur ventre est gris[6].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gazé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gaz%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Premiers stades</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs sont jaune vif. Les chenilles sont velues, avec une tête noire et un dos noir orné de bandes rousses alors que leur ventre est gris.
 La chrysalide est jaune.
 			Œufs sur Crataegus.
 			Chenille.
@@ -566,50 +620,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Gaz%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gaz%C3%A9</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phénologie
-L'espèce est univoltine, et les papillons de son unique génération annuelle volent d'avril-mai à juillet-août. C'est généralement en juillet qu'ils sont le plus abondant[réf. souhaitée].
-Plantes hôtes
-Ses plantes hôtes sont diverses rosacées, dont les aubépines (Crataegus), le prunellier (Prunus spinosa), l'amélanchier, le prunier (Prunus domestica), le poirier, le pommier, le sorbier des oiseleurs, entre autres.
-Comportement
-Les chenilles restent sur les arbustes ; elles hivernent en groupe dans un nid soyeux[7], dont elles sortent au printemps.
-Le papillon fréquente les milieux ouverts, particulièrement les prairies fleuries. Il peut voler assez loin, sans pour autant être migrateur confirmé.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gaz%C3%A9</t>
+          <t>Gazé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,17 +641,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aire de répartition et régression
-Le Gazé est largement répandu dans l'écozone paléarctique, sur une aire qui s'étend de l'Ouest de l'Europe et de l'Afrique du Nord à travers l'Asie tempérée jusqu'au Japon.
-Il a disparu de Grande-Bretagne depuis 1925, et il est en voie de disparition dans les plaines de France, Belgique et Hollande[8]. Toutefois, il se maintient localement dans le Sud de la Belgique[9].
-En France métropolitaine, il est absent de Corse et il est ou a été présent dans tous les départements du continent, mais il est devenu rare et en voie de disparition dans un grand nombre d'entre eux[10],[11]. Autrefois, il abondait tellement qu'il était faussement considéré comme nuisible. Le développement de l'agriculture intensive a fait disparaître peu à peu ses habitats de reproduction. Les vergers ont été détruits et les haies arrachées supprimant les plantes dont se nourrissent les chenilles. L'utilisation massive et non raisonnée des pesticides contre les insectes ravageurs lui ont été très nocifs[réf. souhaitée]. Il est encore relativement commun dans les zones montagneuses, en particulier au-delà de 800 mètres d'altitude où l'agriculture est plus extensive.
-Biotopes
-Le Gazé fréquente les lieux découverts, les broussailles où poussent les aubépines et le prunellier, les vergers où il trouve ses plantes hôtes, ainsi que les zones fleuries de chardons et autres astéracées (composées).
+          <t>Phénologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est univoltine, et les papillons de son unique génération annuelle volent d'avril-mai à juillet-août. C'est généralement en juillet qu'ils sont le plus abondant[réf. souhaitée].
 </t>
         </is>
       </c>
@@ -645,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gaz%C3%A9</t>
+          <t>Gazé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -660,14 +678,202 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont diverses rosacées, dont les aubépines (Crataegus), le prunellier (Prunus spinosa), l'amélanchier, le prunier (Prunus domestica), le poirier, le pommier, le sorbier des oiseleurs, entre autres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gazé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gaz%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles restent sur les arbustes ; elles hivernent en groupe dans un nid soyeux, dont elles sortent au printemps.
+Le papillon fréquente les milieux ouverts, particulièrement les prairies fleuries. Il peut voler assez loin, sans pour autant être migrateur confirmé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gazé</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gaz%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Aire de répartition et régression</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Gazé est largement répandu dans l'écozone paléarctique, sur une aire qui s'étend de l'Ouest de l'Europe et de l'Afrique du Nord à travers l'Asie tempérée jusqu'au Japon.
+Il a disparu de Grande-Bretagne depuis 1925, et il est en voie de disparition dans les plaines de France, Belgique et Hollande. Toutefois, il se maintient localement dans le Sud de la Belgique.
+En France métropolitaine, il est absent de Corse et il est ou a été présent dans tous les départements du continent, mais il est devenu rare et en voie de disparition dans un grand nombre d'entre eux,. Autrefois, il abondait tellement qu'il était faussement considéré comme nuisible. Le développement de l'agriculture intensive a fait disparaître peu à peu ses habitats de reproduction. Les vergers ont été détruits et les haies arrachées supprimant les plantes dont se nourrissent les chenilles. L'utilisation massive et non raisonnée des pesticides contre les insectes ravageurs lui ont été très nocifs[réf. souhaitée]. Il est encore relativement commun dans les zones montagneuses, en particulier au-delà de 800 mètres d'altitude où l'agriculture est plus extensive.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gazé</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gaz%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotopes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Gazé fréquente les lieux découverts, les broussailles où poussent les aubépines et le prunellier, les vergers où il trouve ses plantes hôtes, ainsi que les zones fleuries de chardons et autres astéracées (composées).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gazé</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gaz%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce actuellement appelée Aporia crataegi a été décrite en 1758 par le naturaliste suédois Carl von Linné, sous le nom initial de Papilio crataegi[4]. Elle est l'espèce type du genre Aporia Hübner, [1819].
-Sous-espèces
-De nombreuses sous-espèces ont été décrites, notamment[4] :
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce actuellement appelée Aporia crataegi a été décrite en 1758 par le naturaliste suédois Carl von Linné, sous le nom initial de Papilio crataegi. Elle est l'espèce type du genre Aporia Hübner, .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gazé</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gaz%C3%A9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses sous-espèces ont été décrites, notamment :
 Aporia crataegi adherbal Fruhstorfer, 1910 — au Japon et en Sakhaline.
 Aporia crataegi angustior Graves, 1925
 Aporia crataegi augusta Turner, 1905 — en Sicile.
@@ -687,7 +893,7 @@
 Aporia crataegi rotunda Eitschberger &amp; Reissinger, 1971 — en Italie.
 Aporia crataegi rutae Bryk, 1940 — en Espagne.
 Aporia crataegi shugnana Sheljuzhko, 1925 — dans le Pamir.
-Aporia crataegi tianschanica Rühl, [1893] — en Asie centrale.
+Aporia crataegi tianschanica Rühl,  — en Asie centrale.
 Aporia crataegi transitoria Lempke, 1974 — en Hollande.
 Aporia crataegi ussurica Kardakoff, 1928 — en Extrême-Orient russe.
 Aporia crataegi zabulensis de Freina, 1974 — en Afghanistan.
@@ -702,34 +908,36 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Gaz%C3%A9</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gaz%C3%A9</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gazé</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gaz%C3%A9</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Protection et menaces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, Aporia crataegi est protégé dans la région Île-de-France[12].
-Selon l’Observatoire des papillons, ce papillon autrefois commun en France semble presque disparu du Nord, du Nord-Est et du Bassin parisien, probablement à la suite du développement d'une agriculture intensive (pesticides), à l’arrachage des haies et des vergers qui auraient détruit son habitat et en particulier les haies et buissons d'aubépine, plante hôte nourrissant principalement sa chenille qui ne s'est vraiment maintenue que dans les régions bocagères ou d’élevage extensif (Massif central et Alpes)[13].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, Aporia crataegi est protégé dans la région Île-de-France.
+Selon l’Observatoire des papillons, ce papillon autrefois commun en France semble presque disparu du Nord, du Nord-Est et du Bassin parisien, probablement à la suite du développement d'une agriculture intensive (pesticides), à l’arrachage des haies et des vergers qui auraient détruit son habitat et en particulier les haies et buissons d'aubépine, plante hôte nourrissant principalement sa chenille qui ne s'est vraiment maintenue que dans les régions bocagères ou d’élevage extensif (Massif central et Alpes).
 Autrefois considéré comme nuisible, tellement il abondait dans les vergers, il est aujourd’hui menacé par l’utilisation accrue des pesticides et la destruction du bocage.
 </t>
         </is>
